--- a/regions/8/mretsveloba/mretsveloba.xlsx
+++ b/regions/8/mretsveloba/mretsveloba.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -514,16 +514,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.28515625" customWidth="1"/>
+    <col min="2" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
@@ -544,7 +545,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8">
         <v>2006</v>
@@ -591,8 +592,14 @@
       <c r="P2" s="9">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q2" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -641,9 +648,14 @@
       <c r="P3" s="13">
         <v>2987.2</v>
       </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="13">
+        <v>3600.7</v>
+      </c>
+      <c r="R3" s="13">
+        <v>4362.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -692,9 +704,14 @@
       <c r="P4" s="13">
         <v>2889.9</v>
       </c>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="13">
+        <v>3532.8</v>
+      </c>
+      <c r="R4" s="13">
+        <v>4292.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -743,9 +760,14 @@
       <c r="P5" s="11">
         <v>15213</v>
       </c>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="11">
+        <v>18071</v>
+      </c>
+      <c r="R5" s="11">
+        <v>19601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -794,9 +816,14 @@
       <c r="P6" s="11">
         <v>14882</v>
       </c>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="11">
+        <v>17664</v>
+      </c>
+      <c r="R6" s="11">
+        <v>19209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -845,9 +872,14 @@
       <c r="P7" s="13">
         <v>1577.2</v>
       </c>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="13">
+        <v>1627.1</v>
+      </c>
+      <c r="R7" s="13">
+        <v>1797.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -896,9 +928,14 @@
       <c r="P8" s="13">
         <v>1989.1</v>
       </c>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="13">
+        <v>2303.5</v>
+      </c>
+      <c r="R8" s="13">
+        <v>2582.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -947,9 +984,14 @@
       <c r="P9" s="13">
         <v>287</v>
       </c>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="13">
+        <v>349.4</v>
+      </c>
+      <c r="R9" s="13">
+        <v>420.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -998,9 +1040,14 @@
       <c r="P10" s="13">
         <v>900.8</v>
       </c>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="13">
+        <v>1229.3</v>
+      </c>
+      <c r="R10" s="13">
+        <v>1709.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1049,9 +1096,14 @@
       <c r="P11" s="13">
         <v>322.39999999999998</v>
       </c>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="13">
+        <v>253.1</v>
+      </c>
+      <c r="R11" s="13">
+        <v>196.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1100,9 +1152,14 @@
       <c r="P12" s="13">
         <v>2026.5</v>
       </c>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="13">
+        <v>2426.1999999999998</v>
+      </c>
+      <c r="R12" s="13">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1121,7 +1178,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1140,12 +1197,12 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/regions/8/mretsveloba/mretsveloba.xlsx
+++ b/regions/8/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -524,7 +524,7 @@
     <col min="2" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
@@ -545,7 +545,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8">
         <v>2006</v>
@@ -598,8 +598,11 @@
       <c r="R2" s="9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S2" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -654,8 +657,11 @@
       <c r="R3" s="13">
         <v>4362.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S3" s="13">
+        <v>3708.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -710,8 +716,11 @@
       <c r="R4" s="13">
         <v>4292.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S4" s="13">
+        <v>3716.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -766,8 +775,11 @@
       <c r="R5" s="11">
         <v>19601</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S5" s="11">
+        <v>19656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -822,8 +834,11 @@
       <c r="R6" s="11">
         <v>19209</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S6" s="11">
+        <v>19174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -878,8 +893,11 @@
       <c r="R7" s="13">
         <v>1797.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S7" s="13">
+        <v>1986.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -934,8 +952,11 @@
       <c r="R8" s="13">
         <v>2582.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S8" s="13">
+        <v>2657.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1011,11 @@
       <c r="R9" s="13">
         <v>420.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S9" s="13">
+        <v>471.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -1046,8 +1070,11 @@
       <c r="R10" s="13">
         <v>1709.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S10" s="13">
+        <v>1058.9000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1102,8 +1129,11 @@
       <c r="R11" s="13">
         <v>196.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S11" s="13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="R12" s="13">
         <v>2776</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="13">
+        <v>2726.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1178,7 +1211,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1197,12 +1230,12 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
